--- a/nts.uk/uk.com/com.file/nts.uk.file.com.infra/src/main/resources/report/1.xlsx
+++ b/nts.uk/uk.com/com.file/nts.uk.file.com.infra/src/main/resources/report/1.xlsx
@@ -44511,8 +44511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="12"/>
@@ -44588,8 +44588,12 @@
   <pageMargins left="0.393700787" right="0.393700787" top="0.59055118100000004" bottom="0.59055118110236204" header="0.56496062999999996" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0">
-    <oddHeader>&amp;L&amp;"ＭＳ ゴシック,Regular"&amp;9【会社】日通システム株式会社&amp;C&amp;"ＭＳ ゴシック,Bold"&amp;16承認ルート未登録社員一覧&amp;R&amp;"ＭＳ ゴシック,Regular"&amp;9&amp;D&amp;T
-&amp;Pページ</oddHeader>
+    <oddHeader>&amp;L&amp;"ＭＳ ゴシック,Regular"&amp;9【会社】日通システム株式会社&amp;C&amp;"ＭＳ ゴシック,Bold"&amp;14承認ルート未登録社員一覧&amp;R&amp;"ＭＳ ゴシック,Regular"&amp;9&amp;D&amp;T
+&amp;Nページ</oddHeader>
   </headerFooter>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="52" max="6" man="1"/>
+    <brk id="104" max="6" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>